--- a/curation/BC_Oncology_RECIST11_2023_07_06.xlsx
+++ b/curation/BC_Oncology_RECIST11_2023_07_06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641690A7-FA4A-4DE4-A518-A67FF740B0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48596111-C5D6-4AD7-9A6B-FE44518DAF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="603" activeTab="3" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="BC TU_TR_RS" sheetId="29" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SDTM_TR!$A$1:$AG$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_TU!$A$1:$AG$81</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1478,9 +1478,6 @@
     <t>decodes the value in</t>
   </si>
   <si>
-    <t>is decoded by the value in</t>
-  </si>
-  <si>
     <t>Sponsor</t>
   </si>
   <si>
@@ -1815,6 +1812,9 @@
   </si>
   <si>
     <t>Response Evaluation Criteria in Solid Tumors; Response Evaluation Criteria in Solid Tumors Version 1.1; Disease Response Assessment Test; Disease Response; RECIST 1.1; New Lesion</t>
+  </si>
+  <si>
+    <t>is the code for the value in</t>
   </si>
 </sst>
 </file>
@@ -2423,8 +2423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84315ADB-6D7F-4FEB-9F7A-F6BE7FCB0A2E}">
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
@@ -2482,10 +2482,10 @@
         <v>271</v>
       </c>
       <c r="K1" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>575</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>576</v>
       </c>
       <c r="M1" s="46" t="s">
         <v>236</v>
@@ -2508,19 +2508,19 @@
         <v>309</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>512</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2528,28 +2528,28 @@
         <v>309</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>510</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>493</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>494</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>495</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>265</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2557,34 +2557,34 @@
         <v>309</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C4" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="M4" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N4" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2592,34 +2592,34 @@
         <v>309</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C5" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="M5" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N5" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2627,28 +2627,28 @@
         <v>309</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C6" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="M6" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N6" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>201</v>
@@ -2662,19 +2662,19 @@
         <v>309</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C7" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>493</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M7" s="53" t="s">
         <v>327</v>
@@ -2689,7 +2689,7 @@
         <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2697,28 +2697,28 @@
         <v>309</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C8" s="52" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>498</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>510</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>499</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>511</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>500</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>501</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>265</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2726,34 +2726,34 @@
         <v>309</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C9" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>499</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>500</v>
-      </c>
       <c r="M9" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,34 +2761,34 @@
         <v>309</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C10" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D10" s="53" t="s">
-        <v>499</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>500</v>
-      </c>
       <c r="M10" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2796,28 +2796,28 @@
         <v>309</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C11" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>499</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>500</v>
-      </c>
       <c r="M11" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N11" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N11" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>201</v>
@@ -2831,19 +2831,19 @@
         <v>309</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C12" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>499</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>511</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M12" s="53" t="s">
         <v>327</v>
@@ -2858,7 +2858,7 @@
         <v>201</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="12" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2866,21 +2866,21 @@
         <v>309</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G13" s="16"/>
       <c r="I13" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -2890,7 +2890,7 @@
         <v>309</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>313</v>
@@ -2899,7 +2899,7 @@
         <v>313</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>312</v>
@@ -2911,7 +2911,7 @@
         <v>265</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -2919,7 +2919,7 @@
         <v>309</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>313</v>
@@ -2928,7 +2928,7 @@
         <v>313</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>312</v>
@@ -2955,7 +2955,7 @@
         <v>309</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>313</v>
@@ -2964,7 +2964,7 @@
         <v>313</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>312</v>
@@ -2991,7 +2991,7 @@
         <v>309</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>313</v>
@@ -3000,20 +3000,20 @@
         <v>313</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>312</v>
       </c>
       <c r="G17" s="6"/>
       <c r="M17" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>201</v>
@@ -3027,7 +3027,7 @@
         <v>309</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>313</v>
@@ -3036,20 +3036,20 @@
         <v>313</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>312</v>
       </c>
       <c r="G18" s="6"/>
       <c r="M18" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>201</v>
@@ -3063,7 +3063,7 @@
         <v>309</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>313</v>
@@ -3072,20 +3072,20 @@
         <v>313</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>312</v>
       </c>
       <c r="G19" s="6"/>
       <c r="M19" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>201</v>
@@ -3099,7 +3099,7 @@
         <v>309</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>313</v>
@@ -3108,20 +3108,20 @@
         <v>313</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>312</v>
       </c>
       <c r="G20" s="6"/>
       <c r="M20" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>201</v>
@@ -3135,7 +3135,7 @@
         <v>309</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>313</v>
@@ -3144,20 +3144,20 @@
         <v>313</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>312</v>
       </c>
       <c r="G21" s="6"/>
       <c r="M21" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>201</v>
@@ -3171,7 +3171,7 @@
         <v>309</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>313</v>
@@ -3180,7 +3180,7 @@
         <v>313</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>312</v>
@@ -3188,13 +3188,13 @@
       <c r="G22" s="6"/>
       <c r="J22" s="3"/>
       <c r="M22" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>201</v>
@@ -3208,7 +3208,7 @@
         <v>309</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>313</v>
@@ -3217,20 +3217,20 @@
         <v>313</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>312</v>
       </c>
       <c r="G23" s="6"/>
       <c r="M23" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>201</v>
@@ -3244,7 +3244,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>313</v>
@@ -3253,7 +3253,7 @@
         <v>313</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>312</v>
@@ -3280,19 +3280,19 @@
         <v>309</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C25" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>531</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="I25" s="12" t="s">
         <v>532</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -3300,7 +3300,7 @@
         <v>309</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>448</v>
@@ -3309,19 +3309,19 @@
         <v>448</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>446</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>265</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -3329,7 +3329,7 @@
         <v>309</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>448</v>
@@ -3338,7 +3338,7 @@
         <v>448</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>446</v>
@@ -3365,7 +3365,7 @@
         <v>309</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>448</v>
@@ -3374,7 +3374,7 @@
         <v>448</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>446</v>
@@ -3401,7 +3401,7 @@
         <v>309</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>448</v>
@@ -3410,20 +3410,20 @@
         <v>448</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>446</v>
       </c>
       <c r="G29" s="6"/>
       <c r="M29" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N29" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N29" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>201</v>
@@ -3437,7 +3437,7 @@
         <v>309</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>448</v>
@@ -3446,20 +3446,20 @@
         <v>448</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>446</v>
       </c>
       <c r="G30" s="6"/>
       <c r="M30" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N30" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N30" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>201</v>
@@ -3473,7 +3473,7 @@
         <v>309</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>448</v>
@@ -3482,20 +3482,20 @@
         <v>448</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>446</v>
       </c>
       <c r="G31" s="6"/>
       <c r="M31" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>201</v>
@@ -3509,7 +3509,7 @@
         <v>309</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>448</v>
@@ -3518,20 +3518,20 @@
         <v>448</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>446</v>
       </c>
       <c r="G32" s="6"/>
       <c r="M32" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>201</v>
@@ -3545,7 +3545,7 @@
         <v>309</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>448</v>
@@ -3554,20 +3554,20 @@
         <v>448</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>446</v>
       </c>
       <c r="G33" s="6"/>
       <c r="M33" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="O33" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>201</v>
@@ -3581,7 +3581,7 @@
         <v>309</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>448</v>
@@ -3590,7 +3590,7 @@
         <v>448</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>446</v>
@@ -3598,13 +3598,13 @@
       <c r="G34" s="6"/>
       <c r="J34" s="3"/>
       <c r="M34" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>201</v>
@@ -3618,7 +3618,7 @@
         <v>309</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>448</v>
@@ -3627,20 +3627,20 @@
         <v>448</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>446</v>
       </c>
       <c r="G35" s="6"/>
       <c r="M35" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N35" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N35" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>201</v>
@@ -3654,7 +3654,7 @@
         <v>309</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>448</v>
@@ -3663,7 +3663,7 @@
         <v>448</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>446</v>
@@ -3690,7 +3690,7 @@
         <v>309</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>452</v>
@@ -3699,7 +3699,7 @@
         <v>452</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>451</v>
@@ -3711,7 +3711,7 @@
         <v>265</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>309</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>452</v>
@@ -3728,7 +3728,7 @@
         <v>452</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>451</v>
@@ -3755,7 +3755,7 @@
         <v>309</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>452</v>
@@ -3764,7 +3764,7 @@
         <v>452</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>451</v>
@@ -3791,7 +3791,7 @@
         <v>309</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>452</v>
@@ -3800,20 +3800,20 @@
         <v>452</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>451</v>
       </c>
       <c r="G40" s="6"/>
       <c r="M40" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N40" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N40" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>201</v>
@@ -3827,7 +3827,7 @@
         <v>309</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>452</v>
@@ -3836,20 +3836,20 @@
         <v>452</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>451</v>
       </c>
       <c r="G41" s="6"/>
       <c r="M41" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N41" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N41" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>201</v>
@@ -3863,7 +3863,7 @@
         <v>309</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>452</v>
@@ -3872,20 +3872,20 @@
         <v>452</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>451</v>
       </c>
       <c r="G42" s="6"/>
       <c r="M42" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>524</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>201</v>
@@ -3899,7 +3899,7 @@
         <v>309</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>452</v>
@@ -3908,20 +3908,20 @@
         <v>452</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>451</v>
       </c>
       <c r="G43" s="6"/>
       <c r="M43" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="P43" s="4" t="s">
         <v>201</v>
@@ -3935,7 +3935,7 @@
         <v>309</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>452</v>
@@ -3944,20 +3944,20 @@
         <v>452</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>451</v>
       </c>
       <c r="G44" s="6"/>
       <c r="M44" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="O44" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>528</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>201</v>
@@ -3971,7 +3971,7 @@
         <v>309</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>452</v>
@@ -3980,7 +3980,7 @@
         <v>452</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>451</v>
@@ -3988,13 +3988,13 @@
       <c r="G45" s="6"/>
       <c r="J45" s="3"/>
       <c r="M45" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>201</v>
@@ -4008,7 +4008,7 @@
         <v>309</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>452</v>
@@ -4017,20 +4017,20 @@
         <v>452</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>451</v>
       </c>
       <c r="G46" s="6"/>
       <c r="M46" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N46" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O46" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N46" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>201</v>
@@ -4044,7 +4044,7 @@
         <v>309</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>452</v>
@@ -4053,7 +4053,7 @@
         <v>452</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>451</v>
@@ -4080,19 +4080,19 @@
         <v>309</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F48" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>562</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <v>309</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>427</v>
@@ -4109,7 +4109,7 @@
         <v>427</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>412</v>
@@ -4121,7 +4121,7 @@
         <v>265</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -4129,7 +4129,7 @@
         <v>309</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>427</v>
@@ -4138,7 +4138,7 @@
         <v>427</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>412</v>
@@ -4165,7 +4165,7 @@
         <v>309</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>427</v>
@@ -4174,7 +4174,7 @@
         <v>427</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>412</v>
@@ -4201,7 +4201,7 @@
         <v>309</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>427</v>
@@ -4210,7 +4210,7 @@
         <v>427</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>412</v>
@@ -4237,7 +4237,7 @@
         <v>309</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>427</v>
@@ -4246,20 +4246,20 @@
         <v>427</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>412</v>
       </c>
       <c r="I53" s="4"/>
       <c r="M53" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N53" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O53" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N53" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>201</v>
@@ -4273,7 +4273,7 @@
         <v>309</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>427</v>
@@ -4282,20 +4282,20 @@
         <v>427</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>412</v>
       </c>
       <c r="I54" s="4"/>
       <c r="M54" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N54" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O54" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N54" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>201</v>
@@ -4309,7 +4309,7 @@
         <v>309</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>427</v>
@@ -4318,20 +4318,20 @@
         <v>427</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>412</v>
       </c>
       <c r="I55" s="4"/>
       <c r="M55" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="O55" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="P55" s="4" t="s">
         <v>201</v>
@@ -4345,7 +4345,7 @@
         <v>309</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>427</v>
@@ -4354,20 +4354,20 @@
         <v>427</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>412</v>
       </c>
       <c r="I56" s="4"/>
       <c r="M56" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N56" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O56" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N56" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>201</v>
@@ -4381,7 +4381,7 @@
         <v>309</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>427</v>
@@ -4390,7 +4390,7 @@
         <v>427</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>412</v>
@@ -4417,19 +4417,19 @@
         <v>309</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C58" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="F58" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D58" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="I58" s="12" t="s">
         <v>535</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4437,7 +4437,7 @@
         <v>309</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>422</v>
@@ -4446,13 +4446,13 @@
         <v>422</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>423</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H59" s="18" t="s">
         <v>265</v>
@@ -4468,7 +4468,7 @@
         <v>309</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>422</v>
@@ -4477,7 +4477,7 @@
         <v>422</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>423</v>
@@ -4504,7 +4504,7 @@
         <v>309</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>422</v>
@@ -4513,7 +4513,7 @@
         <v>422</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>423</v>
@@ -4540,7 +4540,7 @@
         <v>309</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>422</v>
@@ -4549,7 +4549,7 @@
         <v>422</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>423</v>
@@ -4576,7 +4576,7 @@
         <v>309</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>422</v>
@@ -4585,20 +4585,20 @@
         <v>422</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>423</v>
       </c>
       <c r="G63" s="6"/>
       <c r="M63" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N63" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O63" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N63" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O63" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>201</v>
@@ -4612,7 +4612,7 @@
         <v>309</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>422</v>
@@ -4621,7 +4621,7 @@
         <v>422</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>423</v>
@@ -4633,13 +4633,13 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N64" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O64" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N64" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P64" s="6" t="s">
         <v>201</v>
@@ -4654,7 +4654,7 @@
         <v>309</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>422</v>
@@ -4663,7 +4663,7 @@
         <v>422</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>423</v>
@@ -4675,13 +4675,13 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="O65" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>201</v>
@@ -4696,7 +4696,7 @@
         <v>309</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>422</v>
@@ -4705,20 +4705,20 @@
         <v>422</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>423</v>
       </c>
       <c r="G66" s="6"/>
       <c r="M66" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N66" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O66" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N66" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P66" s="4" t="s">
         <v>201</v>
@@ -4732,7 +4732,7 @@
         <v>309</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>422</v>
@@ -4741,7 +4741,7 @@
         <v>422</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>423</v>
@@ -4768,19 +4768,19 @@
         <v>309</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F68" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="I68" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -4788,7 +4788,7 @@
         <v>309</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C69" s="52" t="s">
         <v>416</v>
@@ -4797,7 +4797,7 @@
         <v>416</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>417</v>
@@ -4817,7 +4817,7 @@
         <v>309</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>416</v>
@@ -4826,7 +4826,7 @@
         <v>416</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>417</v>
@@ -4853,7 +4853,7 @@
         <v>309</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>416</v>
@@ -4862,7 +4862,7 @@
         <v>416</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>417</v>
@@ -4889,7 +4889,7 @@
         <v>309</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>416</v>
@@ -4898,7 +4898,7 @@
         <v>416</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>417</v>
@@ -4925,7 +4925,7 @@
         <v>309</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>416</v>
@@ -4934,7 +4934,7 @@
         <v>416</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>417</v>
@@ -4961,7 +4961,7 @@
         <v>309</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>416</v>
@@ -4970,26 +4970,26 @@
         <v>416</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>417</v>
       </c>
       <c r="I74" s="4"/>
       <c r="M74" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N74" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O74" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N74" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P74" s="4" t="s">
         <v>201</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -4997,7 +4997,7 @@
         <v>309</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>416</v>
@@ -5006,26 +5006,26 @@
         <v>416</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>417</v>
       </c>
       <c r="I75" s="4"/>
       <c r="M75" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N75" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O75" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N75" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P75" s="4" t="s">
         <v>201</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
@@ -5033,7 +5033,7 @@
         <v>309</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>416</v>
@@ -5042,26 +5042,26 @@
         <v>416</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>417</v>
       </c>
       <c r="I76" s="4"/>
       <c r="M76" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="N76" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="O76" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="N76" s="53" t="s">
-        <v>540</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="P76" s="4" t="s">
         <v>188</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -5069,7 +5069,7 @@
         <v>309</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>416</v>
@@ -5078,20 +5078,20 @@
         <v>416</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>417</v>
       </c>
       <c r="I77" s="4"/>
       <c r="M77" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="N77" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="O77" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="N77" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="P77" s="4" t="s">
         <v>201</v>
@@ -5105,7 +5105,7 @@
         <v>309</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>416</v>
@@ -5114,20 +5114,20 @@
         <v>416</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>417</v>
       </c>
       <c r="I78" s="4"/>
       <c r="M78" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="O78" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="P78" s="4" t="s">
         <v>201</v>
@@ -5141,7 +5141,7 @@
         <v>309</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>416</v>
@@ -5150,20 +5150,20 @@
         <v>416</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>417</v>
       </c>
       <c r="I79" s="4"/>
       <c r="M79" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N79" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O79" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N79" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O79" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P79" s="4" t="s">
         <v>201</v>
@@ -5177,7 +5177,7 @@
         <v>309</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>416</v>
@@ -5186,7 +5186,7 @@
         <v>416</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>417</v>
@@ -5213,19 +5213,19 @@
         <v>309</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C81" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="D81" s="51" t="s">
+        <v>543</v>
+      </c>
+      <c r="F81" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="D81" s="51" t="s">
-        <v>544</v>
-      </c>
-      <c r="F81" s="12" t="s">
+      <c r="I81" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -5233,7 +5233,7 @@
         <v>309</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C82" s="19" t="s">
         <v>349</v>
@@ -5242,7 +5242,7 @@
         <v>349</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F82" s="20" t="s">
         <v>348</v>
@@ -5264,7 +5264,7 @@
         <v>309</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C83" s="53" t="s">
         <v>349</v>
@@ -5273,7 +5273,7 @@
         <v>349</v>
       </c>
       <c r="E83" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>348</v>
@@ -5299,7 +5299,7 @@
         <v>309</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C84" s="53" t="s">
         <v>349</v>
@@ -5308,7 +5308,7 @@
         <v>349</v>
       </c>
       <c r="E84" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>348</v>
@@ -5334,7 +5334,7 @@
         <v>309</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C85" s="53" t="s">
         <v>349</v>
@@ -5343,7 +5343,7 @@
         <v>349</v>
       </c>
       <c r="E85" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>348</v>
@@ -5369,7 +5369,7 @@
         <v>309</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C86" s="53" t="s">
         <v>349</v>
@@ -5378,7 +5378,7 @@
         <v>349</v>
       </c>
       <c r="E86" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>348</v>
@@ -5404,7 +5404,7 @@
         <v>309</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C87" s="53" t="s">
         <v>349</v>
@@ -5413,25 +5413,25 @@
         <v>349</v>
       </c>
       <c r="E87" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>348</v>
       </c>
       <c r="M87" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N87" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O87" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N87" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O87" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P87" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5439,7 +5439,7 @@
         <v>309</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C88" s="53" t="s">
         <v>349</v>
@@ -5448,25 +5448,25 @@
         <v>349</v>
       </c>
       <c r="E88" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>348</v>
       </c>
       <c r="M88" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N88" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O88" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N88" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O88" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P88" s="7" t="s">
         <v>201</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5474,7 +5474,7 @@
         <v>309</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C89" s="53" t="s">
         <v>349</v>
@@ -5483,25 +5483,25 @@
         <v>349</v>
       </c>
       <c r="E89" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>348</v>
       </c>
       <c r="M89" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="N89" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="O89" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="N89" s="53" t="s">
-        <v>540</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="P89" s="7" t="s">
         <v>188</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5509,7 +5509,7 @@
         <v>309</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C90" s="53" t="s">
         <v>349</v>
@@ -5518,19 +5518,19 @@
         <v>349</v>
       </c>
       <c r="E90" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>348</v>
       </c>
       <c r="M90" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="N90" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="O90" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="N90" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="O90" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="P90" s="7" t="s">
         <v>201</v>
@@ -5544,7 +5544,7 @@
         <v>309</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C91" s="53" t="s">
         <v>349</v>
@@ -5553,19 +5553,19 @@
         <v>349</v>
       </c>
       <c r="E91" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>348</v>
       </c>
       <c r="M91" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="O91" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="O91" s="4" t="s">
-        <v>530</v>
       </c>
       <c r="P91" s="7" t="s">
         <v>201</v>
@@ -5579,7 +5579,7 @@
         <v>309</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C92" s="53" t="s">
         <v>349</v>
@@ -5588,19 +5588,19 @@
         <v>349</v>
       </c>
       <c r="E92" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>348</v>
       </c>
       <c r="M92" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N92" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O92" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N92" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O92" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P92" s="7" t="s">
         <v>201</v>
@@ -5614,7 +5614,7 @@
         <v>309</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C93" s="53" t="s">
         <v>349</v>
@@ -5623,7 +5623,7 @@
         <v>349</v>
       </c>
       <c r="E93" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>348</v>
@@ -5649,19 +5649,19 @@
         <v>309</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C94" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="D94" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="F94" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="D94" s="51" t="s">
-        <v>547</v>
-      </c>
-      <c r="F94" s="12" t="s">
+      <c r="I94" s="12" t="s">
         <v>548</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -5669,7 +5669,7 @@
         <v>309</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C95" s="22" t="s">
         <v>377</v>
@@ -5678,7 +5678,7 @@
         <v>377</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F95" s="20" t="s">
         <v>376</v>
@@ -5700,7 +5700,7 @@
         <v>309</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>377</v>
@@ -5709,7 +5709,7 @@
         <v>377</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>376</v>
@@ -5736,7 +5736,7 @@
         <v>309</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>377</v>
@@ -5745,20 +5745,20 @@
         <v>377</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>376</v>
       </c>
       <c r="G97" s="6"/>
       <c r="M97" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N97" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O97" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N97" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O97" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P97" s="4" t="s">
         <v>201</v>
@@ -5772,7 +5772,7 @@
         <v>309</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>377</v>
@@ -5781,20 +5781,20 @@
         <v>377</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>376</v>
       </c>
       <c r="G98" s="6"/>
       <c r="M98" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N98" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O98" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N98" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P98" s="4" t="s">
         <v>201</v>
@@ -5808,7 +5808,7 @@
         <v>309</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>377</v>
@@ -5817,20 +5817,20 @@
         <v>377</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>376</v>
       </c>
       <c r="G99" s="6"/>
       <c r="M99" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N99" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O99" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N99" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P99" s="4" t="s">
         <v>201</v>
@@ -5844,7 +5844,7 @@
         <v>309</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>377</v>
@@ -5853,7 +5853,7 @@
         <v>377</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>376</v>
@@ -5880,7 +5880,7 @@
         <v>309</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>432</v>
@@ -5889,7 +5889,7 @@
         <v>432</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F101" s="20" t="s">
         <v>429</v>
@@ -5901,7 +5901,7 @@
         <v>265</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M101" s="19"/>
       <c r="N101" s="19"/>
@@ -5911,7 +5911,7 @@
         <v>309</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>432</v>
@@ -5920,7 +5920,7 @@
         <v>432</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>429</v>
@@ -5947,7 +5947,7 @@
         <v>309</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>432</v>
@@ -5956,26 +5956,26 @@
         <v>432</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>429</v>
       </c>
       <c r="G103" s="6"/>
       <c r="M103" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N103" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O103" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N103" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O103" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P103" s="4" t="s">
         <v>201</v>
       </c>
       <c r="Q103" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -5983,7 +5983,7 @@
         <v>309</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>432</v>
@@ -5992,26 +5992,26 @@
         <v>432</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>429</v>
       </c>
       <c r="G104" s="6"/>
       <c r="M104" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N104" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O104" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N104" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O104" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P104" s="4" t="s">
         <v>201</v>
       </c>
       <c r="Q104" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -6019,7 +6019,7 @@
         <v>309</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>432</v>
@@ -6028,20 +6028,20 @@
         <v>432</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>429</v>
       </c>
       <c r="G105" s="6"/>
       <c r="M105" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N105" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O105" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N105" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O105" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P105" s="4" t="s">
         <v>201</v>
@@ -6055,7 +6055,7 @@
         <v>309</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>432</v>
@@ -6064,7 +6064,7 @@
         <v>432</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>429</v>
@@ -6091,7 +6091,7 @@
         <v>309</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>433</v>
@@ -6100,7 +6100,7 @@
         <v>433</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F107" s="20" t="s">
         <v>435</v>
@@ -6112,7 +6112,7 @@
         <v>265</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M107" s="19"/>
       <c r="N107" s="19"/>
@@ -6122,7 +6122,7 @@
         <v>309</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>433</v>
@@ -6131,7 +6131,7 @@
         <v>433</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>435</v>
@@ -6144,7 +6144,7 @@
         <v>381</v>
       </c>
       <c r="O108" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P108" s="4" t="s">
         <v>201</v>
@@ -6158,7 +6158,7 @@
         <v>309</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>433</v>
@@ -6167,7 +6167,7 @@
         <v>433</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>435</v>
@@ -6194,7 +6194,7 @@
         <v>309</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>433</v>
@@ -6203,20 +6203,20 @@
         <v>433</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>435</v>
       </c>
       <c r="G110" s="6"/>
       <c r="M110" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N110" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O110" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N110" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O110" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P110" s="4" t="s">
         <v>201</v>
@@ -6230,7 +6230,7 @@
         <v>309</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>433</v>
@@ -6239,20 +6239,20 @@
         <v>433</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>435</v>
       </c>
       <c r="G111" s="6"/>
       <c r="M111" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N111" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O111" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N111" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O111" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P111" s="4" t="s">
         <v>201</v>
@@ -6266,7 +6266,7 @@
         <v>309</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>433</v>
@@ -6275,20 +6275,20 @@
         <v>433</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>435</v>
       </c>
       <c r="G112" s="6"/>
       <c r="M112" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N112" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O112" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N112" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O112" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P112" s="4" t="s">
         <v>201</v>
@@ -6302,7 +6302,7 @@
         <v>309</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>433</v>
@@ -6311,7 +6311,7 @@
         <v>433</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>435</v>
@@ -6338,19 +6338,19 @@
         <v>309</v>
       </c>
       <c r="B114" s="51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C114" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="F114" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="D114" s="51" t="s">
-        <v>551</v>
-      </c>
-      <c r="F114" s="12" t="s">
+      <c r="I114" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="I114" s="12" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -6358,7 +6358,7 @@
         <v>309</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>438</v>
@@ -6367,7 +6367,7 @@
         <v>438</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F115" s="20" t="s">
         <v>437</v>
@@ -6389,7 +6389,7 @@
         <v>309</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>438</v>
@@ -6398,7 +6398,7 @@
         <v>438</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>437</v>
@@ -6425,7 +6425,7 @@
         <v>309</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>438</v>
@@ -6434,20 +6434,20 @@
         <v>438</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>437</v>
       </c>
       <c r="G117" s="6"/>
       <c r="M117" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="N117" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="O117" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="N117" s="53" t="s">
-        <v>514</v>
-      </c>
-      <c r="O117" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="P117" s="4" t="s">
         <v>201</v>
@@ -6461,7 +6461,7 @@
         <v>309</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>438</v>
@@ -6470,20 +6470,20 @@
         <v>438</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>437</v>
       </c>
       <c r="G118" s="6"/>
       <c r="M118" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="N118" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="O118" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="N118" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="O118" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="P118" s="4" t="s">
         <v>201</v>
@@ -6497,7 +6497,7 @@
         <v>309</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>438</v>
@@ -6506,20 +6506,20 @@
         <v>438</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>437</v>
       </c>
       <c r="G119" s="6"/>
       <c r="M119" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N119" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="O119" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="N119" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="O119" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="P119" s="4" t="s">
         <v>201</v>
@@ -6533,7 +6533,7 @@
         <v>309</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>438</v>
@@ -6542,7 +6542,7 @@
         <v>438</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>437</v>
@@ -6874,9 +6874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE1CEBE-B789-4892-AD82-26487D6A4767}">
   <dimension ref="A1:AG81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="T82" sqref="T82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6931,7 +6931,7 @@
         <v>240</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>241</v>
@@ -7023,7 +7023,7 @@
         <v>373</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="35" t="s">
@@ -7037,25 +7037,25 @@
         <v>316</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>317</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M2" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R2" s="32" t="s">
         <v>5</v>
@@ -7064,7 +7064,7 @@
         <v>317</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U2" s="32" t="s">
         <v>196</v>
@@ -7080,7 +7080,7 @@
         <v>460</v>
       </c>
       <c r="AD2" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE2" s="32" t="s">
         <v>4</v>
@@ -7091,7 +7091,7 @@
         <v>373</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="35" t="s">
@@ -7105,10 +7105,10 @@
         <v>316</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J3" s="32" t="s">
         <v>318</v>
@@ -7120,10 +7120,10 @@
         <v>318</v>
       </c>
       <c r="P3" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q3" s="32" t="s">
         <v>493</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>494</v>
       </c>
       <c r="R3" s="32" t="s">
         <v>7</v>
@@ -7148,7 +7148,7 @@
         <v>460</v>
       </c>
       <c r="AD3" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -7156,10 +7156,10 @@
         <v>373</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>406</v>
@@ -7172,10 +7172,10 @@
         <v>316</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>319</v>
@@ -7187,7 +7187,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>7</v>
@@ -7220,7 +7220,7 @@
         <v>228</v>
       </c>
       <c r="AD4" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF4" s="32" t="s">
         <v>6</v>
@@ -7231,10 +7231,10 @@
         <v>373</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>406</v>
@@ -7247,10 +7247,10 @@
         <v>316</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J5" s="32" t="s">
         <v>320</v>
@@ -7262,7 +7262,7 @@
         <v>22</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R5" s="32" t="s">
         <v>7</v>
@@ -7295,7 +7295,7 @@
         <v>469</v>
       </c>
       <c r="AD5" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF5" s="32" t="s">
         <v>6</v>
@@ -7306,10 +7306,10 @@
         <v>373</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>406</v>
@@ -7322,10 +7322,10 @@
         <v>316</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J6" s="32" t="s">
         <v>325</v>
@@ -7365,7 +7365,7 @@
         <v>460</v>
       </c>
       <c r="AD6" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE6" s="32" t="s">
         <v>4</v>
@@ -7376,7 +7376,7 @@
         <v>373</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>327</v>
@@ -7392,10 +7392,10 @@
         <v>316</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>326</v>
@@ -7407,10 +7407,10 @@
         <v>326</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R7" s="32" t="s">
         <v>344</v>
@@ -7419,7 +7419,7 @@
         <v>326</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U7" s="32" t="s">
         <v>347</v>
@@ -7435,7 +7435,7 @@
         <v>460</v>
       </c>
       <c r="AD7" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE7" s="32" t="s">
         <v>4</v>
@@ -7446,7 +7446,7 @@
         <v>373</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="35" t="s">
@@ -7460,25 +7460,25 @@
         <v>316</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J8" s="32" t="s">
         <v>317</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M8" s="32" t="s">
         <v>317</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="R8" s="32" t="s">
         <v>5</v>
@@ -7487,7 +7487,7 @@
         <v>317</v>
       </c>
       <c r="T8" s="32" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U8" s="32" t="s">
         <v>196</v>
@@ -7503,7 +7503,7 @@
         <v>460</v>
       </c>
       <c r="AD8" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE8" s="32" t="s">
         <v>4</v>
@@ -7514,7 +7514,7 @@
         <v>373</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="35" t="s">
@@ -7528,10 +7528,10 @@
         <v>316</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>318</v>
@@ -7543,10 +7543,10 @@
         <v>318</v>
       </c>
       <c r="P9" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q9" s="32" t="s">
         <v>499</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>500</v>
       </c>
       <c r="R9" s="32" t="s">
         <v>7</v>
@@ -7571,7 +7571,7 @@
         <v>460</v>
       </c>
       <c r="AD9" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="32" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -7579,10 +7579,10 @@
         <v>373</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>406</v>
@@ -7595,10 +7595,10 @@
         <v>316</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J10" s="32" t="s">
         <v>319</v>
@@ -7610,7 +7610,7 @@
         <v>22</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R10" s="32" t="s">
         <v>7</v>
@@ -7643,7 +7643,7 @@
         <v>228</v>
       </c>
       <c r="AD10" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF10" s="32" t="s">
         <v>6</v>
@@ -7654,10 +7654,10 @@
         <v>373</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>406</v>
@@ -7670,10 +7670,10 @@
         <v>316</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>320</v>
@@ -7685,7 +7685,7 @@
         <v>22</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R11" s="32" t="s">
         <v>7</v>
@@ -7718,7 +7718,7 @@
         <v>469</v>
       </c>
       <c r="AD11" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF11" s="32" t="s">
         <v>6</v>
@@ -7729,10 +7729,10 @@
         <v>373</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>406</v>
@@ -7745,10 +7745,10 @@
         <v>316</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>325</v>
@@ -7788,7 +7788,7 @@
         <v>460</v>
       </c>
       <c r="AD12" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE12" s="32" t="s">
         <v>4</v>
@@ -7799,7 +7799,7 @@
         <v>373</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C13" s="55" t="s">
         <v>327</v>
@@ -7815,10 +7815,10 @@
         <v>316</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>326</v>
@@ -7830,10 +7830,10 @@
         <v>326</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="R13" s="32" t="s">
         <v>344</v>
@@ -7842,7 +7842,7 @@
         <v>326</v>
       </c>
       <c r="T13" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U13" s="32" t="s">
         <v>347</v>
@@ -7858,7 +7858,7 @@
         <v>460</v>
       </c>
       <c r="AD13" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE13" s="32" t="s">
         <v>4</v>
@@ -7891,7 +7891,7 @@
         <v>317</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>317</v>
@@ -7909,7 +7909,7 @@
         <v>317</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>196</v>
@@ -7924,7 +7924,7 @@
         <v>460</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE14" s="5" t="s">
         <v>4</v>
@@ -7990,7 +7990,7 @@
         <v>460</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
@@ -8001,7 +8001,7 @@
         <v>313</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>406</v>
@@ -8062,7 +8062,7 @@
         <v>228</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF16" s="5" t="s">
         <v>6</v>
@@ -8076,7 +8076,7 @@
         <v>313</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>406</v>
@@ -8137,7 +8137,7 @@
         <v>469</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF17" s="5" t="s">
         <v>6</v>
@@ -8151,7 +8151,7 @@
         <v>313</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>406</v>
@@ -8200,7 +8200,7 @@
         <v>228</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
@@ -8211,7 +8211,7 @@
         <v>313</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>406</v>
@@ -8260,7 +8260,7 @@
         <v>228</v>
       </c>
       <c r="AD19" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
@@ -8271,7 +8271,7 @@
         <v>313</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>406</v>
@@ -8320,7 +8320,7 @@
         <v>228</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="56.25" x14ac:dyDescent="0.2">
@@ -8331,7 +8331,7 @@
         <v>313</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>406</v>
@@ -8359,7 +8359,7 @@
         <v>267</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>7</v>
@@ -8383,7 +8383,7 @@
         <v>228</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE21" s="5" t="s">
         <v>467</v>
@@ -8397,7 +8397,7 @@
         <v>313</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>406</v>
@@ -8449,7 +8449,7 @@
         <v>460</v>
       </c>
       <c r="AD22" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE22" s="5" t="s">
         <v>467</v>
@@ -8500,7 +8500,7 @@
         <v>326</v>
       </c>
       <c r="T23" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U23" s="15" t="s">
         <v>347</v>
@@ -8515,7 +8515,7 @@
         <v>460</v>
       </c>
       <c r="AD23" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE23" s="5" t="s">
         <v>467</v>
@@ -8557,10 +8557,10 @@
         <v>334</v>
       </c>
       <c r="T24" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V24" s="5" t="s">
         <v>458</v>
@@ -8572,7 +8572,7 @@
         <v>460</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
@@ -8611,7 +8611,7 @@
         <v>335</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U25" s="15" t="s">
         <v>462</v>
@@ -8626,7 +8626,7 @@
         <v>460</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
@@ -8690,7 +8690,7 @@
         <v>228</v>
       </c>
       <c r="AD26" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
@@ -8754,7 +8754,7 @@
         <v>228</v>
       </c>
       <c r="AD27" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
@@ -8784,7 +8784,7 @@
         <v>317</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>317</v>
@@ -8802,7 +8802,7 @@
         <v>317</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>196</v>
@@ -8817,7 +8817,7 @@
         <v>460</v>
       </c>
       <c r="AD28" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>4</v>
@@ -8883,7 +8883,7 @@
         <v>460</v>
       </c>
       <c r="AD29" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
@@ -8894,7 +8894,7 @@
         <v>313</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>406</v>
@@ -8958,7 +8958,7 @@
         <v>460</v>
       </c>
       <c r="AD30" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15" t="s">
@@ -8973,7 +8973,7 @@
         <v>313</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>406</v>
@@ -9037,7 +9037,7 @@
         <v>469</v>
       </c>
       <c r="AD31" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE31" s="15"/>
       <c r="AF31" s="15" t="s">
@@ -9052,7 +9052,7 @@
         <v>313</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>406</v>
@@ -9101,7 +9101,7 @@
         <v>228</v>
       </c>
       <c r="AD32" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
@@ -9112,7 +9112,7 @@
         <v>313</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>406</v>
@@ -9161,7 +9161,7 @@
         <v>228</v>
       </c>
       <c r="AD33" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
@@ -9172,7 +9172,7 @@
         <v>313</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>406</v>
@@ -9221,7 +9221,7 @@
         <v>228</v>
       </c>
       <c r="AD34" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="56.25" x14ac:dyDescent="0.2">
@@ -9232,7 +9232,7 @@
         <v>313</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>406</v>
@@ -9260,7 +9260,7 @@
         <v>267</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>7</v>
@@ -9284,7 +9284,7 @@
         <v>228</v>
       </c>
       <c r="AD35" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE35" s="5" t="s">
         <v>467</v>
@@ -9298,7 +9298,7 @@
         <v>313</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>406</v>
@@ -9350,7 +9350,7 @@
         <v>460</v>
       </c>
       <c r="AD36" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE36" s="5" t="s">
         <v>467</v>
@@ -9404,7 +9404,7 @@
         <v>326</v>
       </c>
       <c r="T37" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U37" s="15" t="s">
         <v>347</v>
@@ -9419,7 +9419,7 @@
         <v>460</v>
       </c>
       <c r="AD37" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE37" s="5" t="s">
         <v>4</v>
@@ -9461,10 +9461,10 @@
         <v>334</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U38" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V38" s="5" t="s">
         <v>458</v>
@@ -9476,7 +9476,7 @@
         <v>460</v>
       </c>
       <c r="AD38" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
@@ -9515,7 +9515,7 @@
         <v>335</v>
       </c>
       <c r="T39" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U39" s="15" t="s">
         <v>462</v>
@@ -9530,7 +9530,7 @@
         <v>460</v>
       </c>
       <c r="AD39" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
@@ -9560,7 +9560,7 @@
         <v>317</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>317</v>
@@ -9578,7 +9578,7 @@
         <v>317</v>
       </c>
       <c r="T40" s="15" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U40" s="5" t="s">
         <v>196</v>
@@ -9593,7 +9593,7 @@
         <v>460</v>
       </c>
       <c r="AD40" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE40" s="5" t="s">
         <v>4</v>
@@ -9659,7 +9659,7 @@
         <v>460</v>
       </c>
       <c r="AD41" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
@@ -9670,7 +9670,7 @@
         <v>313</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>406</v>
@@ -9734,7 +9734,7 @@
         <v>460</v>
       </c>
       <c r="AD42" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE42" s="15"/>
       <c r="AF42" s="15" t="s">
@@ -9749,7 +9749,7 @@
         <v>313</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>406</v>
@@ -9813,7 +9813,7 @@
         <v>469</v>
       </c>
       <c r="AD43" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE43" s="15"/>
       <c r="AF43" s="15" t="s">
@@ -9828,7 +9828,7 @@
         <v>313</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>406</v>
@@ -9877,7 +9877,7 @@
         <v>228</v>
       </c>
       <c r="AD44" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
@@ -9888,7 +9888,7 @@
         <v>313</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>406</v>
@@ -9937,7 +9937,7 @@
         <v>228</v>
       </c>
       <c r="AD45" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
@@ -9948,7 +9948,7 @@
         <v>313</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>406</v>
@@ -9997,7 +9997,7 @@
         <v>228</v>
       </c>
       <c r="AD46" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="56.25" x14ac:dyDescent="0.2">
@@ -10008,7 +10008,7 @@
         <v>313</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>406</v>
@@ -10036,7 +10036,7 @@
         <v>267</v>
       </c>
       <c r="O47" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R47" s="5" t="s">
         <v>7</v>
@@ -10060,7 +10060,7 @@
         <v>228</v>
       </c>
       <c r="AD47" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE47" s="5" t="s">
         <v>467</v>
@@ -10074,7 +10074,7 @@
         <v>313</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>406</v>
@@ -10126,7 +10126,7 @@
         <v>460</v>
       </c>
       <c r="AD48" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE48" s="5" t="s">
         <v>467</v>
@@ -10180,7 +10180,7 @@
         <v>326</v>
       </c>
       <c r="T49" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U49" s="15" t="s">
         <v>347</v>
@@ -10195,7 +10195,7 @@
         <v>460</v>
       </c>
       <c r="AD49" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE49" s="5" t="s">
         <v>4</v>
@@ -10237,10 +10237,10 @@
         <v>334</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V50" s="5" t="s">
         <v>458</v>
@@ -10252,7 +10252,7 @@
         <v>460</v>
       </c>
       <c r="AD50" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
@@ -10291,7 +10291,7 @@
         <v>335</v>
       </c>
       <c r="T51" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="U51" s="15" t="s">
         <v>462</v>
@@ -10306,7 +10306,7 @@
         <v>460</v>
       </c>
       <c r="AD51" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
@@ -10578,8 +10578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816356B9-7DB9-4F0A-A8D4-101C67323EDD}">
   <dimension ref="A1:AG46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -10634,7 +10634,7 @@
         <v>240</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>241</v>
@@ -10766,7 +10766,7 @@
         <v>362</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>196</v>
@@ -10781,7 +10781,7 @@
         <v>460</v>
       </c>
       <c r="AD2" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE2" s="5" t="s">
         <v>4</v>
@@ -10847,7 +10847,7 @@
         <v>460</v>
       </c>
       <c r="AD3" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -10858,7 +10858,7 @@
         <v>349</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>406</v>
@@ -10907,7 +10907,7 @@
         <v>228</v>
       </c>
       <c r="AD4" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF4" s="5" t="s">
         <v>6</v>
@@ -10921,7 +10921,7 @@
         <v>349</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>406</v>
@@ -10961,7 +10961,7 @@
         <v>370</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>198</v>
@@ -10976,7 +10976,7 @@
         <v>460</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE5" s="15"/>
       <c r="AF5" s="15" t="s">
@@ -10991,7 +10991,7 @@
         <v>349</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>406</v>
@@ -11040,7 +11040,7 @@
         <v>469</v>
       </c>
       <c r="AD6" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF6" s="5" t="s">
         <v>6</v>
@@ -11054,7 +11054,7 @@
         <v>349</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>406</v>
@@ -11103,7 +11103,7 @@
         <v>469</v>
       </c>
       <c r="AD7" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF7" s="5" t="s">
         <v>6</v>
@@ -11117,7 +11117,7 @@
         <v>349</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>406</v>
@@ -11157,7 +11157,7 @@
         <v>371</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>198</v>
@@ -11172,7 +11172,7 @@
         <v>469</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE8" s="15"/>
       <c r="AF8" s="15" t="s">
@@ -11187,7 +11187,7 @@
         <v>349</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>406</v>
@@ -11215,7 +11215,7 @@
         <v>267</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>7</v>
@@ -11239,7 +11239,7 @@
         <v>228</v>
       </c>
       <c r="AD9" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE9" s="5" t="s">
         <v>467</v>
@@ -11253,7 +11253,7 @@
         <v>349</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>406</v>
@@ -11305,7 +11305,7 @@
         <v>460</v>
       </c>
       <c r="AD10" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE10" s="5" t="s">
         <v>467</v>
@@ -11356,7 +11356,7 @@
         <v>326</v>
       </c>
       <c r="T11" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U11" s="15" t="s">
         <v>347</v>
@@ -11371,7 +11371,7 @@
         <v>460</v>
       </c>
       <c r="AD11" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE11" s="5" t="s">
         <v>467</v>
@@ -11413,10 +11413,10 @@
         <v>368</v>
       </c>
       <c r="T12" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="U12" s="29" t="s">
         <v>481</v>
-      </c>
-      <c r="U12" s="29" t="s">
-        <v>482</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>362</v>
@@ -11428,7 +11428,7 @@
         <v>469</v>
       </c>
       <c r="AD12" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
@@ -11467,7 +11467,7 @@
         <v>369</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U13" s="29" t="s">
         <v>462</v>
@@ -11482,7 +11482,7 @@
         <v>469</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="22.5" x14ac:dyDescent="0.2">
@@ -11536,7 +11536,7 @@
         <v>460</v>
       </c>
       <c r="AD14" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
@@ -11584,7 +11584,7 @@
         <v>362</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>196</v>
@@ -11599,7 +11599,7 @@
         <v>460</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE15" s="5" t="s">
         <v>4</v>
@@ -11665,7 +11665,7 @@
         <v>460</v>
       </c>
       <c r="AD16" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
@@ -11676,7 +11676,7 @@
         <v>416</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>406</v>
@@ -11725,7 +11725,7 @@
         <v>228</v>
       </c>
       <c r="AD17" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF17" s="5" t="s">
         <v>6</v>
@@ -11739,7 +11739,7 @@
         <v>416</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>406</v>
@@ -11779,7 +11779,7 @@
         <v>370</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>198</v>
@@ -11794,7 +11794,7 @@
         <v>460</v>
       </c>
       <c r="AD18" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE18" s="15"/>
       <c r="AF18" s="15" t="s">
@@ -11809,7 +11809,7 @@
         <v>416</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>406</v>
@@ -11858,7 +11858,7 @@
         <v>469</v>
       </c>
       <c r="AD19" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF19" s="5" t="s">
         <v>6</v>
@@ -11872,7 +11872,7 @@
         <v>416</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>406</v>
@@ -11921,7 +11921,7 @@
         <v>469</v>
       </c>
       <c r="AD20" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>6</v>
@@ -11935,7 +11935,7 @@
         <v>416</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>406</v>
@@ -11975,7 +11975,7 @@
         <v>371</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>198</v>
@@ -11990,7 +11990,7 @@
         <v>469</v>
       </c>
       <c r="AD21" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15" t="s">
@@ -12005,7 +12005,7 @@
         <v>416</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>406</v>
@@ -12033,7 +12033,7 @@
         <v>267</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>7</v>
@@ -12057,7 +12057,7 @@
         <v>228</v>
       </c>
       <c r="AD22" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE22" s="5" t="s">
         <v>467</v>
@@ -12071,7 +12071,7 @@
         <v>416</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>406</v>
@@ -12123,7 +12123,7 @@
         <v>460</v>
       </c>
       <c r="AD23" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE23" s="5" t="s">
         <v>467</v>
@@ -12174,7 +12174,7 @@
         <v>326</v>
       </c>
       <c r="T24" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U24" s="15" t="s">
         <v>347</v>
@@ -12189,7 +12189,7 @@
         <v>460</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE24" s="5" t="s">
         <v>467</v>
@@ -12231,10 +12231,10 @@
         <v>368</v>
       </c>
       <c r="T25" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="U25" s="29" t="s">
         <v>481</v>
-      </c>
-      <c r="U25" s="29" t="s">
-        <v>482</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>362</v>
@@ -12246,7 +12246,7 @@
         <v>469</v>
       </c>
       <c r="AD25" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
@@ -12285,7 +12285,7 @@
         <v>369</v>
       </c>
       <c r="T26" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U26" s="29" t="s">
         <v>462</v>
@@ -12300,7 +12300,7 @@
         <v>469</v>
       </c>
       <c r="AD26" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="22.5" x14ac:dyDescent="0.2">
@@ -12400,7 +12400,7 @@
         <v>362</v>
       </c>
       <c r="T28" s="15" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>196</v>
@@ -12415,7 +12415,7 @@
         <v>460</v>
       </c>
       <c r="AD28" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE28" s="5" t="s">
         <v>4</v>
@@ -12481,7 +12481,7 @@
         <v>460</v>
       </c>
       <c r="AD29" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
@@ -12492,7 +12492,7 @@
         <v>427</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>406</v>
@@ -12514,10 +12514,10 @@
         <v>364</v>
       </c>
       <c r="L30" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="M30" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>445</v>
@@ -12550,7 +12550,7 @@
         <v>228</v>
       </c>
       <c r="AD30" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE30" s="15"/>
       <c r="AF30" s="15" t="s">
@@ -12565,7 +12565,7 @@
         <v>427</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>406</v>
@@ -12587,10 +12587,10 @@
         <v>365</v>
       </c>
       <c r="L31" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="M31" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>445</v>
@@ -12623,7 +12623,7 @@
         <v>469</v>
       </c>
       <c r="AD31" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE31" s="15"/>
       <c r="AF31" s="15" t="s">
@@ -12638,7 +12638,7 @@
         <v>427</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>406</v>
@@ -12666,7 +12666,7 @@
         <v>267</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>7</v>
@@ -12690,7 +12690,7 @@
         <v>228</v>
       </c>
       <c r="AD32" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE32" s="5" t="s">
         <v>467</v>
@@ -12704,7 +12704,7 @@
         <v>427</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>406</v>
@@ -12756,7 +12756,7 @@
         <v>460</v>
       </c>
       <c r="AD33" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE33" s="5" t="s">
         <v>467</v>
@@ -12807,7 +12807,7 @@
         <v>326</v>
       </c>
       <c r="T34" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U34" s="15" t="s">
         <v>347</v>
@@ -12822,7 +12822,7 @@
         <v>460</v>
       </c>
       <c r="AD34" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE34" s="5" t="s">
         <v>467</v>
@@ -12864,10 +12864,10 @@
         <v>368</v>
       </c>
       <c r="T35" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="U35" s="29" t="s">
         <v>481</v>
-      </c>
-      <c r="U35" s="29" t="s">
-        <v>482</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>362</v>
@@ -12879,7 +12879,7 @@
         <v>469</v>
       </c>
       <c r="AD35" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
@@ -12918,7 +12918,7 @@
         <v>369</v>
       </c>
       <c r="T36" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U36" s="29" t="s">
         <v>462</v>
@@ -12933,7 +12933,7 @@
         <v>469</v>
       </c>
       <c r="AD36" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="22.5" x14ac:dyDescent="0.2">
@@ -12987,7 +12987,7 @@
         <v>460</v>
       </c>
       <c r="AD37" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
@@ -13035,7 +13035,7 @@
         <v>362</v>
       </c>
       <c r="T38" s="15" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U38" s="5" t="s">
         <v>196</v>
@@ -13050,7 +13050,7 @@
         <v>460</v>
       </c>
       <c r="AD38" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE38" s="5" t="s">
         <v>4</v>
@@ -13092,7 +13092,7 @@
         <v>422</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>7</v>
@@ -13116,7 +13116,7 @@
         <v>460</v>
       </c>
       <c r="AD39" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
@@ -13127,7 +13127,7 @@
         <v>422</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>406</v>
@@ -13149,10 +13149,10 @@
         <v>364</v>
       </c>
       <c r="L40" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="M40" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>426</v>
@@ -13185,7 +13185,7 @@
         <v>228</v>
       </c>
       <c r="AD40" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE40" s="15"/>
       <c r="AF40" s="15" t="s">
@@ -13200,7 +13200,7 @@
         <v>422</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>406</v>
@@ -13222,10 +13222,10 @@
         <v>365</v>
       </c>
       <c r="L41" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="M41" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>426</v>
@@ -13258,7 +13258,7 @@
         <v>469</v>
       </c>
       <c r="AD41" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE41" s="15"/>
       <c r="AF41" s="15" t="s">
@@ -13273,7 +13273,7 @@
         <v>422</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>406</v>
@@ -13301,7 +13301,7 @@
         <v>267</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>7</v>
@@ -13325,7 +13325,7 @@
         <v>228</v>
       </c>
       <c r="AD42" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE42" s="5" t="s">
         <v>467</v>
@@ -13339,7 +13339,7 @@
         <v>422</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>406</v>
@@ -13391,7 +13391,7 @@
         <v>460</v>
       </c>
       <c r="AD43" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE43" s="5" t="s">
         <v>467</v>
@@ -13442,7 +13442,7 @@
         <v>326</v>
       </c>
       <c r="T44" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U44" s="15" t="s">
         <v>347</v>
@@ -13457,7 +13457,7 @@
         <v>460</v>
       </c>
       <c r="AD44" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE44" s="5" t="s">
         <v>467</v>
@@ -13499,10 +13499,10 @@
         <v>368</v>
       </c>
       <c r="T45" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="U45" s="29" t="s">
         <v>481</v>
-      </c>
-      <c r="U45" s="29" t="s">
-        <v>482</v>
       </c>
       <c r="V45" s="5" t="s">
         <v>362</v>
@@ -13514,7 +13514,7 @@
         <v>469</v>
       </c>
       <c r="AD45" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="22.5" x14ac:dyDescent="0.2">
@@ -13568,7 +13568,7 @@
         <v>469</v>
       </c>
       <c r="AD46" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -13618,8 +13618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016D9ECC-D059-4030-ACA4-503D9B56A133}">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13674,7 +13674,7 @@
         <v>240</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>241</v>
@@ -13806,7 +13806,7 @@
         <v>389</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>196</v>
@@ -13821,7 +13821,7 @@
         <v>460</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>4</v>
@@ -13887,7 +13887,7 @@
         <v>460</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -13953,7 +13953,7 @@
         <v>460</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE4" s="4" t="s">
         <v>4</v>
@@ -13967,7 +13967,7 @@
         <v>377</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>406</v>
@@ -13995,7 +13995,7 @@
         <v>401</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>7</v>
@@ -14025,7 +14025,7 @@
         <v>228</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12" t="s">
@@ -14040,7 +14040,7 @@
         <v>377</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>406</v>
@@ -14068,7 +14068,7 @@
         <v>401</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>7</v>
@@ -14098,7 +14098,7 @@
         <v>469</v>
       </c>
       <c r="AD6" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12" t="s">
@@ -14113,7 +14113,7 @@
         <v>377</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>406</v>
@@ -14168,7 +14168,7 @@
         <v>460</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE7" s="4" t="s">
         <v>4</v>
@@ -14222,7 +14222,7 @@
         <v>326</v>
       </c>
       <c r="T8" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U8" s="15" t="s">
         <v>347</v>
@@ -14237,7 +14237,7 @@
         <v>460</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE8" s="4" t="s">
         <v>4</v>
@@ -14288,7 +14288,7 @@
         <v>389</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>196</v>
@@ -14303,7 +14303,7 @@
         <v>460</v>
       </c>
       <c r="AD9" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE9" s="4" t="s">
         <v>4</v>
@@ -14345,7 +14345,7 @@
         <v>432</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>7</v>
@@ -14369,7 +14369,7 @@
         <v>460</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -14435,7 +14435,7 @@
         <v>460</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE11" s="4" t="s">
         <v>4</v>
@@ -14449,7 +14449,7 @@
         <v>432</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>406</v>
@@ -14477,7 +14477,7 @@
         <v>401</v>
       </c>
       <c r="O12" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>7</v>
@@ -14507,7 +14507,7 @@
         <v>228</v>
       </c>
       <c r="AD12" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12" t="s">
@@ -14522,7 +14522,7 @@
         <v>432</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>406</v>
@@ -14550,7 +14550,7 @@
         <v>401</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>7</v>
@@ -14580,7 +14580,7 @@
         <v>469</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE13" s="12"/>
       <c r="AF13" s="12" t="s">
@@ -14595,7 +14595,7 @@
         <v>432</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>406</v>
@@ -14650,7 +14650,7 @@
         <v>460</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE14" s="4" t="s">
         <v>4</v>
@@ -14704,7 +14704,7 @@
         <v>326</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U15" s="15" t="s">
         <v>347</v>
@@ -14719,7 +14719,7 @@
         <v>460</v>
       </c>
       <c r="AD15" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE15" s="4" t="s">
         <v>4</v>
@@ -14770,7 +14770,7 @@
         <v>389</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>196</v>
@@ -14785,7 +14785,7 @@
         <v>460</v>
       </c>
       <c r="AD16" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE16" s="4" t="s">
         <v>4</v>
@@ -14851,7 +14851,7 @@
         <v>460</v>
       </c>
       <c r="AD17" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
@@ -14917,7 +14917,7 @@
         <v>460</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE18" s="4" t="s">
         <v>4</v>
@@ -14931,7 +14931,7 @@
         <v>438</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>406</v>
@@ -14989,7 +14989,7 @@
         <v>228</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12" t="s">
@@ -15004,7 +15004,7 @@
         <v>438</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>406</v>
@@ -15062,7 +15062,7 @@
         <v>469</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12" t="s">
@@ -15077,7 +15077,7 @@
         <v>438</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>406</v>
@@ -15132,7 +15132,7 @@
         <v>460</v>
       </c>
       <c r="AD21" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>4</v>
@@ -15186,7 +15186,7 @@
         <v>326</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U22" s="15" t="s">
         <v>347</v>
@@ -15201,7 +15201,7 @@
         <v>460</v>
       </c>
       <c r="AD22" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE22" s="4" t="s">
         <v>4</v>
@@ -15252,7 +15252,7 @@
         <v>389</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>196</v>
@@ -15267,7 +15267,7 @@
         <v>460</v>
       </c>
       <c r="AD23" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE23" s="4" t="s">
         <v>4</v>
@@ -15333,7 +15333,7 @@
         <v>460</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
@@ -15399,7 +15399,7 @@
         <v>460</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE25" s="4" t="s">
         <v>4</v>
@@ -15413,7 +15413,7 @@
         <v>433</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>406</v>
@@ -15441,7 +15441,7 @@
         <v>401</v>
       </c>
       <c r="O26" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>7</v>
@@ -15471,7 +15471,7 @@
         <v>228</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12" t="s">
@@ -15486,7 +15486,7 @@
         <v>433</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>406</v>
@@ -15514,7 +15514,7 @@
         <v>401</v>
       </c>
       <c r="O27" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>7</v>
@@ -15544,7 +15544,7 @@
         <v>469</v>
       </c>
       <c r="AD27" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12" t="s">
@@ -15559,7 +15559,7 @@
         <v>433</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>406</v>
@@ -15614,7 +15614,7 @@
         <v>460</v>
       </c>
       <c r="AD28" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE28" s="4" t="s">
         <v>4</v>
@@ -15668,7 +15668,7 @@
         <v>326</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U29" s="15" t="s">
         <v>347</v>
@@ -15683,7 +15683,7 @@
         <v>460</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AE29" s="4" t="s">
         <v>4</v>
@@ -15740,7 +15740,7 @@
         <v>469</v>
       </c>
       <c r="AD30" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -17598,6 +17598,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95a591a9c1d64a7009b5597c446bd65f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63634f6e381b5ed55a864cdabf38da8d" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -17822,24 +17839,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C7FF019-6E9E-4327-8A98-09E2F73626E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69987298-F94B-4FAE-824D-77320F34A719}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17856,29 +17881,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C7FF019-6E9E-4327-8A98-09E2F73626E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>